--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84927.85084247758</v>
+        <v>15607200.26775214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84927.85084247758</v>
+        <v>15607200.26775214</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1849.493650548082</v>
+        <v>145195.1646899052</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1849.493650548082</v>
+        <v>145195.1646899052</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036099770.04996</v>
+        <v>42803226.52234175</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9100.336327632645</v>
+        <v>1038643.55861754</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16962.45727317812</v>
+        <v>1886929.382518796</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24824.57821872357</v>
+        <v>2735215.206420054</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32764.12167028922</v>
+        <v>3588789.983064422</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40679.27401074377</v>
+        <v>4437510.928597679</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48135.32632345935</v>
+        <v>5264382.460565888</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55797.5051792414</v>
+        <v>6113103.406099141</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63459.68403502346</v>
+        <v>6961824.351632394</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>71112.96325350679</v>
+        <v>7810079.51485083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>78769.37434548751</v>
+        <v>8658853.543790862</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>85770.01491690926</v>
+        <v>9404107.645067304</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>93435.356871083</v>
+        <v>10252426.95492701</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100963.9140137229</v>
+        <v>11100794.12456321</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>108659.3088932848</v>
+        <v>11940370.22066373</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>116364.0942639294</v>
+        <v>12780605.82738309</v>
       </c>
     </row>
   </sheetData>
